--- a/Data/LabResults/Solids_soil_Ctotal-Ntotal.xlsx
+++ b/Data/LabResults/Solids_soil_Ctotal-Ntotal.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="159">
   <si>
     <t xml:space="preserve">BGC RoMA order report</t>
   </si>
@@ -479,6 +480,24 @@
   </si>
   <si>
     <t xml:space="preserve">G10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C in Mg/ha</t>
   </si>
 </sst>
 </file>
@@ -597,11 +616,11 @@
   </sheetPr>
   <dimension ref="A1:U152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
@@ -7077,4 +7096,1728 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G71"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K22" activeCellId="0" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>10.3414707183838</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <f aca="false">+1.44*F2/100*5*0.000001/0.00000001</f>
+        <v>74.4585891723633</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>7.76247930526733</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">+1.44*F3/100*5*0.000001/0.00000001</f>
+        <v>55.8898509979248</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>5.67301511764526</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <f aca="false">+1.44*F4/100*5*0.000001/0.00000001</f>
+        <v>40.8457088470459</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>4.36110782623291</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <f aca="false">+1.44*F5/100*5*0.000001/0.00000001</f>
+        <v>31.3999763488769</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>7.12443780899048</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <f aca="false">+1.44*F6/100*5*0.000001/0.00000001</f>
+        <v>51.2959522247315</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>4.68350267410278</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <f aca="false">+1.44*F7/100*5*0.000001/0.00000001</f>
+        <v>33.72121925354</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>3.31241226196289</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">+1.44*F8/100*5*0.000001/0.00000001</f>
+        <v>23.8493682861328</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>4.3198881149292</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">+1.44*F9/100*5*0.000001/0.00000001</f>
+        <v>31.1031944274902</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>5.50654125213623</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">+1.44*F10/100*5*0.000001/0.00000001</f>
+        <v>39.6470970153809</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1.90333890914917</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">+1.44*F11/100*5*0.000001/0.00000001</f>
+        <v>13.704040145874</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>3.6686155796051</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">+1.44*F12/100*5*0.000001/0.00000001</f>
+        <v>26.4140321731567</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>8.9969654083252</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">+1.44*F13/100*5*0.000001/0.00000001</f>
+        <v>64.7781509399414</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>6.791335105896</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">+1.44*F14/100*5*0.000001/0.00000001</f>
+        <v>48.8976127624512</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>2.06460452079773</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">+1.44*F15/100*5*0.000001/0.00000001</f>
+        <v>14.8651525497437</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1.83645737171173</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">+1.44*F16/100*5*0.000001/0.00000001</f>
+        <v>13.2224930763245</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>2.14168000221252</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">+1.44*F17/100*5*0.000001/0.00000001</f>
+        <v>15.4200960159301</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>2.73076987266541</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">+1.44*F18/100*5*0.000001/0.00000001</f>
+        <v>19.661543083191</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>3.02453708648682</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">+1.44*F19/100*5*0.000001/0.00000001</f>
+        <v>21.7766670227051</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>1.09250795841217</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">+1.44*F20/100*5*0.000001/0.00000001</f>
+        <v>7.86605730056762</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>1.94728863239288</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">+1.44*F21/100*5*0.000001/0.00000001</f>
+        <v>14.0204781532287</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>1.75916075706482</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">+1.44*F22/100*5*0.000001/0.00000001</f>
+        <v>12.6659574508667</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>1.34826827049255</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <f aca="false">+1.44*F23/100*5*0.000001/0.00000001</f>
+        <v>9.70753154754636</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>2.59056615829468</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <f aca="false">+1.44*F24/100*5*0.000001/0.00000001</f>
+        <v>18.6520763397217</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>2.96037912368774</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <f aca="false">+1.44*F25/100*5*0.000001/0.00000001</f>
+        <v>21.3147296905517</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>2.20197820663452</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <f aca="false">+1.44*F26/100*5*0.000001/0.00000001</f>
+        <v>15.8542430877685</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>2.54289031028748</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <f aca="false">+1.44*F27/100*5*0.000001/0.00000001</f>
+        <v>18.3088102340699</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>2.10035705566406</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <f aca="false">+1.44*F28/100*5*0.000001/0.00000001</f>
+        <v>15.1225708007812</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>2.705411195755</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <f aca="false">+1.44*F29/100*5*0.000001/0.00000001</f>
+        <v>19.478960609436</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>2.40679168701172</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <f aca="false">+1.44*F30/100*5*0.000001/0.00000001</f>
+        <v>17.3289001464844</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>1.49306905269623</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <f aca="false">+1.44*F31/100*5*0.000001/0.00000001</f>
+        <v>10.7500971794129</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>1.15396618843079</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <f aca="false">+1.44*F32/100*5*0.000001/0.00000001</f>
+        <v>8.30855655670169</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>1.97376477718353</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <f aca="false">+1.44*F33/100*5*0.000001/0.00000001</f>
+        <v>14.2111063957214</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>1.04729056358337</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <f aca="false">+1.44*F34/100*5*0.000001/0.00000001</f>
+        <v>7.54049205780026</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>4.74850177764893</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <f aca="false">+1.44*F35/100*5*0.000001/0.00000001</f>
+        <v>34.1892127990723</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>6.20663118362427</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <f aca="false">+1.44*F36/100*5*0.000001/0.00000001</f>
+        <v>44.6877445220947</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>1.32934463024139</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <f aca="false">+1.44*F37/100*5*0.000001/0.00000001</f>
+        <v>9.57128133773801</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>2.60951447486877</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <f aca="false">+1.44*F38/100*5*0.000001/0.00000001</f>
+        <v>18.7885042190551</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>4.50110292434692</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <f aca="false">+1.44*F39/100*5*0.000001/0.00000001</f>
+        <v>32.4079410552978</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>2.65850615501404</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <f aca="false">+1.58*F40/100*5*0.000001/0.00000001</f>
+        <v>21.0021986246109</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>1.29653263092041</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <f aca="false">+1.58*F41/100*5*0.000001/0.00000001</f>
+        <v>10.2426077842712</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>2.0182478427887</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">+1.58*F42/100*5*0.000001/0.00000001</f>
+        <v>15.9441579580307</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>1.45280468463898</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">+1.58*F43/100*5*0.000001/0.00000001</f>
+        <v>11.4771570086479</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>2.02361106872559</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">+1.58*F44/100*5*0.000001/0.00000001</f>
+        <v>15.9865274429322</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>2.08722448348999</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">+1.58*F45/100*5*0.000001/0.00000001</f>
+        <v>16.4890734195709</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>1.26113474369049</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">+1.58*F46/100*5*0.000001/0.00000001</f>
+        <v>9.96296447515487</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>1.81200754642487</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">+1.58*F47/100*5*0.000001/0.00000001</f>
+        <v>14.3148596167565</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>1.6262948513031</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">+1.58*F48/100*5*0.000001/0.00000001</f>
+        <v>12.8477293252945</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>1.47586476802826</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">+1.58*F49/100*5*0.000001/0.00000001</f>
+        <v>11.6593316674233</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>2.62427639961243</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">+1.58*F50/100*5*0.000001/0.00000001</f>
+        <v>20.7317835569382</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>2.06446576118469</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">+1.58*F51/100*5*0.000001/0.00000001</f>
+        <v>16.3092795133591</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>1.82142972946167</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">+1.58*F52/100*5*0.000001/0.00000001</f>
+        <v>14.3892948627472</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>2.81901383399963</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">+1.58*F53/100*5*0.000001/0.00000001</f>
+        <v>22.2702092885971</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>1.44755339622498</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">+1.58*F54/100*5*0.000001/0.00000001</f>
+        <v>11.4356718301773</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>2.74356269836426</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">+1.58*F55/100*5*0.000001/0.00000001</f>
+        <v>21.6741453170777</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>2.25889134407043</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">+1.58*F56/100*5*0.000001/0.00000001</f>
+        <v>17.8452416181564</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>1.46688294410706</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">+1.58*F57/100*5*0.000001/0.00000001</f>
+        <v>11.5883752584458</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>0.791796803474426</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">+1.58*F58/100*5*0.000001/0.00000001</f>
+        <v>6.25519474744797</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>1.38661766052246</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">+1.58*F59/100*5*0.000001/0.00000001</f>
+        <v>10.9542795181274</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>1.14381575584412</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">+1.58*F60/100*5*0.000001/0.00000001</f>
+        <v>9.03614447116855</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="3" t="n">
+        <v>2.82092070579529</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">+1.58*F61/100*5*0.000001/0.00000001</f>
+        <v>22.2852735757828</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F62" s="3" t="n">
+        <v>2.27173018455505</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">+1.58*F62/100*5*0.000001/0.00000001</f>
+        <v>17.9466684579849</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>3.69666647911072</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">+1.58*F63/100*5*0.000001/0.00000001</f>
+        <v>29.2036651849747</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>6.83980369567871</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">+1.44*F64/100*5*0.000001/0.00000001</f>
+        <v>49.2465866088867</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>4.54429626464844</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">+1.44*F65/100*5*0.000001/0.00000001</f>
+        <v>32.7189331054688</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>3.06287169456482</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <f aca="false">+1.44*F66/100*5*0.000001/0.00000001</f>
+        <v>22.0526762008667</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E67" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>2.37662363052368</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <f aca="false">+1.44*F67/100*5*0.000001/0.00000001</f>
+        <v>17.1116901397705</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>3.86963820457459</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <f aca="false">+1.44*F68/100*5*0.000001/0.00000001</f>
+        <v>27.861395072937</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>2.58562350273132</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <f aca="false">+1.44*F69/100*5*0.000001/0.00000001</f>
+        <v>18.6164892196655</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>2.64525651931763</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <f aca="false">+1.44*F70/100*5*0.000001/0.00000001</f>
+        <v>19.0458469390869</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>3.80034041404724</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <f aca="false">+1.44*F71/100*5*0.000001/0.00000001</f>
+        <v>27.3624509811401</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>